--- a/biology/Zoologie/Heteromyinae/Heteromyinae.xlsx
+++ b/biology/Zoologie/Heteromyinae/Heteromyinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Souris épineuses à poches
-Les Heteromyinae forment une sous-famille de mammifères rongeurs de la famille des Heteromyidae qui regroupe les souris kangourou d'Amérique. Ce sont des souris épineuses à poches[1], c'est-à-dire à larges abajoues.
+Les Heteromyinae forment une sous-famille de mammifères rongeurs de la famille des Heteromyidae qui regroupe les souris kangourou d'Amérique. Ce sont des souris épineuses à poches, c'est-à-dire à larges abajoues.
 Cette sous-famille a été décrite pour la première fois en 1868 par le zoologiste britannique John Edward Gray (1800-1875).
 </t>
         </is>
@@ -513,13 +525,49 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (2 juin 2016)[2], Mammal Species of the World (version 3, 2005)  (2 juin 2016)[3], NCBI  (2 juin 2016)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (2 juin 2016), Mammal Species of the World (version 3, 2005)  (2 juin 2016), NCBI  (2 juin 2016) :
 genre Heteromys Desmarest, 1817
-genre Liomys Merriam, 1902
-Liste des genres, sous-genres et espèces
-Selon Mammal Species of the World (version 3, 2005)  (2 juin 2016)[3], cette sous-famille comprend deux genres actuels :
+genre Liomys Merriam, 1902</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Heteromyinae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heteromyinae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des genres, sous-genres et espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (2 juin 2016), cette sous-famille comprend deux genres actuels :
 genre Heteromys
 Heteromys oresterus
 sous-genre Heteromys (Heteromys)
